--- a/Resources/meishu/WarOfCrystal_1220_3.xlsx
+++ b/Resources/meishu/WarOfCrystal_1220_3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="全局" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="251">
   <si>
     <t>强化1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1718,6 +1718,22 @@
   </si>
   <si>
     <t>帧数附1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接在自身和目标之间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2150,6 +2166,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2166,9 +2185,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2492,10 +2508,10 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="80" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="79"/>
+      <c r="C4" s="80"/>
     </row>
     <row r="5" spans="1:10">
       <c r="B5" s="7" t="s">
@@ -2684,10 +2700,10 @@
       </c>
     </row>
     <row r="17" spans="2:14">
-      <c r="D17" s="79" t="s">
+      <c r="D17" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="E17" s="79"/>
+      <c r="E17" s="80"/>
     </row>
     <row r="18" spans="2:14">
       <c r="B18" s="7" t="s">
@@ -4274,10 +4290,10 @@
       <c r="E14" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="80" t="s">
+      <c r="F14" s="81" t="s">
         <v>123</v>
       </c>
-      <c r="G14" s="81"/>
+      <c r="G14" s="82"/>
     </row>
     <row r="15" spans="1:23" s="10" customFormat="1">
       <c r="C15" s="2" t="s">
@@ -4289,10 +4305,10 @@
       <c r="E15" s="2">
         <v>1</v>
       </c>
-      <c r="F15" s="82" t="s">
+      <c r="F15" s="83" t="s">
         <v>124</v>
       </c>
-      <c r="G15" s="83"/>
+      <c r="G15" s="84"/>
       <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:23" s="10" customFormat="1">
@@ -4305,10 +4321,10 @@
       <c r="E16" s="2">
         <v>2</v>
       </c>
-      <c r="F16" s="82" t="s">
+      <c r="F16" s="83" t="s">
         <v>125</v>
       </c>
-      <c r="G16" s="83"/>
+      <c r="G16" s="84"/>
       <c r="H16" s="12"/>
     </row>
     <row r="17" spans="2:8" s="10" customFormat="1">
@@ -4321,10 +4337,10 @@
       <c r="E17" s="2">
         <v>3</v>
       </c>
-      <c r="F17" s="82" t="s">
+      <c r="F17" s="83" t="s">
         <v>126</v>
       </c>
-      <c r="G17" s="83"/>
+      <c r="G17" s="84"/>
       <c r="H17" s="12"/>
     </row>
     <row r="18" spans="2:8" s="10" customFormat="1"/>
@@ -4413,11 +4429,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4539,17 +4555,17 @@
         <f t="shared" ref="J2:J10" si="0">"Bullet_"&amp;A2&amp;"_1"</f>
         <v>Bullet_1001_1</v>
       </c>
-      <c r="K2" s="85"/>
+      <c r="K2" s="79"/>
       <c r="L2" s="44" t="str">
         <f t="shared" ref="L2:L10" si="1">"Bullet_"&amp;A2&amp;"_2"</f>
         <v>Bullet_1001_2</v>
       </c>
-      <c r="M2" s="85"/>
+      <c r="M2" s="79"/>
       <c r="N2" s="44" t="str">
         <f>"Bullet_"&amp;A2&amp;"_3"</f>
         <v>Bullet_1001_3</v>
       </c>
-      <c r="O2" s="85"/>
+      <c r="O2" s="79"/>
       <c r="P2" s="44" t="str">
         <f t="shared" ref="P2:P10" si="2">"AttackVoiceIdle_"&amp;A2</f>
         <v>AttackVoiceIdle_1001</v>
@@ -4606,17 +4622,17 @@
         <f t="shared" si="0"/>
         <v>Bullet_1002_1</v>
       </c>
-      <c r="K3" s="85"/>
+      <c r="K3" s="79"/>
       <c r="L3" s="44" t="str">
         <f t="shared" si="1"/>
         <v>Bullet_1002_2</v>
       </c>
-      <c r="M3" s="85"/>
+      <c r="M3" s="79"/>
       <c r="N3" s="44" t="str">
         <f t="shared" ref="N3:N10" si="5">"Bullet_"&amp;A3&amp;"_3"</f>
         <v>Bullet_1002_3</v>
       </c>
-      <c r="O3" s="85">
+      <c r="O3" s="79">
         <v>1</v>
       </c>
       <c r="P3" s="44" t="str">
@@ -4675,17 +4691,17 @@
         <f t="shared" si="0"/>
         <v>Bullet_1003_1</v>
       </c>
-      <c r="K4" s="85"/>
+      <c r="K4" s="79"/>
       <c r="L4" s="44" t="str">
         <f t="shared" si="1"/>
         <v>Bullet_1003_2</v>
       </c>
-      <c r="M4" s="85"/>
+      <c r="M4" s="79"/>
       <c r="N4" s="44" t="str">
         <f t="shared" si="5"/>
         <v>Bullet_1003_3</v>
       </c>
-      <c r="O4" s="85"/>
+      <c r="O4" s="79"/>
       <c r="P4" s="44" t="str">
         <f t="shared" si="2"/>
         <v>AttackVoiceIdle_1003</v>
@@ -4742,19 +4758,19 @@
         <f t="shared" si="0"/>
         <v>Bullet_2001_1</v>
       </c>
-      <c r="K5" s="85">
+      <c r="K5" s="79">
         <v>6</v>
       </c>
       <c r="L5" s="44" t="str">
         <f t="shared" si="1"/>
         <v>Bullet_2001_2</v>
       </c>
-      <c r="M5" s="85"/>
+      <c r="M5" s="79"/>
       <c r="N5" s="44" t="str">
         <f t="shared" si="5"/>
         <v>Bullet_2001_3</v>
       </c>
-      <c r="O5" s="85">
+      <c r="O5" s="79">
         <v>6</v>
       </c>
       <c r="P5" s="44" t="str">
@@ -4816,19 +4832,19 @@
         <f t="shared" si="0"/>
         <v>Bullet_2002_1</v>
       </c>
-      <c r="K6" s="85">
+      <c r="K6" s="79">
         <v>8</v>
       </c>
       <c r="L6" s="44" t="str">
         <f t="shared" si="1"/>
         <v>Bullet_2002_2</v>
       </c>
-      <c r="M6" s="85"/>
+      <c r="M6" s="79"/>
       <c r="N6" s="44" t="str">
         <f t="shared" si="5"/>
         <v>Bullet_2002_3</v>
       </c>
-      <c r="O6" s="85"/>
+      <c r="O6" s="79"/>
       <c r="P6" s="44" t="str">
         <f t="shared" si="2"/>
         <v>AttackVoiceIdle_2002</v>
@@ -4895,12 +4911,12 @@
         <f t="shared" si="1"/>
         <v>Bullet_2003_2</v>
       </c>
-      <c r="M7" s="85"/>
+      <c r="M7" s="79"/>
       <c r="N7" s="44" t="str">
         <f t="shared" si="5"/>
         <v>Bullet_2003_3</v>
       </c>
-      <c r="O7" s="85"/>
+      <c r="O7" s="79"/>
       <c r="P7" s="44" t="str">
         <f t="shared" si="2"/>
         <v>AttackVoiceIdle_2003</v>
@@ -4950,11 +4966,11 @@
         <v>1</v>
       </c>
       <c r="F8" s="40">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G8" s="45" t="str">
         <f t="shared" si="4"/>
-        <v>0,5,0</v>
+        <v>0,1,0</v>
       </c>
       <c r="J8" s="35" t="str">
         <f t="shared" si="0"/>
@@ -4967,12 +4983,12 @@
         <f t="shared" si="1"/>
         <v>Bullet_3001_2</v>
       </c>
-      <c r="M8" s="85"/>
+      <c r="M8" s="79"/>
       <c r="N8" s="44" t="str">
         <f t="shared" si="5"/>
         <v>Bullet_3001_3</v>
       </c>
-      <c r="O8" s="85"/>
+      <c r="O8" s="79"/>
       <c r="P8" s="44" t="str">
         <f t="shared" si="2"/>
         <v>AttackVoiceIdle_3001</v>
@@ -4985,7 +5001,7 @@
         <v>0</v>
       </c>
       <c r="S8" s="73">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T8" s="74">
         <v>0</v>
@@ -5039,12 +5055,12 @@
         <f t="shared" si="1"/>
         <v>Bullet_3002_2</v>
       </c>
-      <c r="M9" s="85"/>
+      <c r="M9" s="79"/>
       <c r="N9" s="44" t="str">
         <f t="shared" si="5"/>
         <v>Bullet_3002_3</v>
       </c>
-      <c r="O9" s="85"/>
+      <c r="O9" s="79"/>
       <c r="P9" s="44" t="str">
         <f t="shared" si="2"/>
         <v>AttackVoiceIdle_3002</v>
@@ -5111,7 +5127,7 @@
         <f t="shared" si="1"/>
         <v>Bullet_3003_2</v>
       </c>
-      <c r="M10" s="85">
+      <c r="M10" s="79">
         <v>9</v>
       </c>
       <c r="N10" s="44" t="str">
@@ -5189,11 +5205,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC30"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q14" sqref="Q14"/>
+      <selection pane="bottomRight" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5593,11 +5609,11 @@
         <v>1</v>
       </c>
       <c r="H5" s="40">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I5" s="45" t="str">
         <f t="shared" si="4"/>
-        <v>3,5,3</v>
+        <v>2,0,0</v>
       </c>
       <c r="J5" s="65"/>
       <c r="K5" s="65" t="str">
@@ -5631,13 +5647,13 @@
         <v>对目标及周围的所有敌人造成 攻击力*500% 的伤害,冷却时间10秒</v>
       </c>
       <c r="U5" s="64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V5" s="64">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W5" s="64">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X5" s="75">
         <v>0</v>
@@ -5866,11 +5882,11 @@
         <v>3</v>
       </c>
       <c r="H8" s="40">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I8" s="45" t="str">
         <f t="shared" si="4"/>
-        <v>0,8,8</v>
+        <v>0,1.5,0</v>
       </c>
       <c r="J8" s="40">
         <v>2</v>
@@ -5906,17 +5922,17 @@
       </c>
       <c r="S8" s="45"/>
       <c r="T8" s="66" t="str">
-        <f>"对目标及周围的所有敌人造成 攻击力*"&amp;E8*100&amp;"% 的伤害,并冻结"&amp;X8&amp;"秒,冷却时间"&amp;F8&amp;"秒"</f>
-        <v>对目标及周围的所有敌人造成 攻击力*200% 的伤害,并冻结2秒,冷却时间10秒</v>
+        <f>"对目标造成 攻击力*"&amp;E8*100&amp;"% 的伤害,并冻结"&amp;X8&amp;"秒,冷却时间"&amp;F8&amp;"秒"</f>
+        <v>对目标造成 攻击力*200% 的伤害,并冻结2秒,冷却时间10秒</v>
       </c>
       <c r="U8" s="64">
         <v>0</v>
       </c>
       <c r="V8" s="64">
-        <v>8</v>
+        <v>1.5</v>
       </c>
       <c r="W8" s="64">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="X8" s="75">
         <v>2</v>
@@ -6335,7 +6351,7 @@
   <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6354,14 +6370,14 @@
       <c r="C1" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="84" t="s">
+      <c r="D1" s="85" t="s">
         <v>152</v>
       </c>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
       <c r="J1" s="21" t="s">
         <v>39</v>
       </c>
@@ -6564,6 +6580,26 @@
       </c>
       <c r="M8" t="s">
         <v>230</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>247</v>
+      </c>
+      <c r="C9" t="s">
+        <v>248</v>
+      </c>
+      <c r="D9" s="59" t="s">
+        <v>249</v>
+      </c>
+      <c r="J9" t="s">
+        <v>146</v>
+      </c>
+      <c r="K9" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -7973,11 +8009,11 @@
       </c>
       <c r="F8">
         <f>攻击!F8</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G8" t="str">
         <f>攻击!G8</f>
-        <v>0,5,0</v>
+        <v>0,1,0</v>
       </c>
       <c r="H8">
         <f>攻击!H8</f>
@@ -8618,11 +8654,11 @@
       </c>
       <c r="H6">
         <f>技能!H5</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I6" t="str">
         <f>技能!I5</f>
-        <v>3,5,3</v>
+        <v>2,0,0</v>
       </c>
       <c r="J6">
         <f>技能!J6</f>
@@ -8781,11 +8817,11 @@
       </c>
       <c r="H8">
         <f>技能!H8</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I8" t="str">
         <f>技能!I8</f>
-        <v>0,8,8</v>
+        <v>0,1.5,0</v>
       </c>
       <c r="J8">
         <f>技能!J8</f>
@@ -8829,7 +8865,7 @@
       </c>
       <c r="T8" t="str">
         <f>技能!T8</f>
-        <v>对目标及周围的所有敌人造成 攻击力*200% 的伤害,并冻结2秒,冷却时间10秒</v>
+        <v>对目标造成 攻击力*200% 的伤害,并冻结2秒,冷却时间10秒</v>
       </c>
     </row>
     <row r="9" spans="1:20">
